--- a/AccController/AccController.Web/Content/templates/import/ais/CapNhatPhongBanUser.xlsx
+++ b/AccController/AccController.Web/Content/templates/import/ais/CapNhatPhongBanUser.xlsx
@@ -15,7 +15,7 @@
     <sheet name="CapNhatPhongBanUser" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Entities" comment="{Field:&quot;Entities&quot;}" localSheetId="0">CapNhatPhongBanUser!$A$4</definedName>
+    <definedName name="Entities" comment="{Field:&quot;Entities&quot;}" localSheetId="0">CapNhatPhongBanUser!$A$4:$F$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>

--- a/AccController/AccController.Web/Content/templates/import/ais/CapNhatPhongBanUser.xlsx
+++ b/AccController/AccController.Web/Content/templates/import/ais/CapNhatPhongBanUser.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\AccController\AccController\AccController.Web\Content\templates\import\ais\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1380" yWindow="2025" windowWidth="15120" windowHeight="6375" tabRatio="754"/>
   </bookViews>
@@ -15,14 +10,14 @@
     <sheet name="CapNhatPhongBanUser" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Entities" comment="{Field:&quot;Entities&quot;}" localSheetId="0">CapNhatPhongBanUser!$A$4:$F$4</definedName>
+    <definedName name="Entities" comment="{Field:&quot;Entities&quot;}" localSheetId="0">CapNhatPhongBanUser!$A$4:$D$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Mức ưu tiên</t>
   </si>
@@ -58,6 +53,18 @@
   </si>
   <si>
     <t>{Field:"NewRole"}</t>
+  </si>
+  <si>
+    <t>Tên chức vụ cũ</t>
+  </si>
+  <si>
+    <t>Quyền cũ</t>
+  </si>
+  <si>
+    <t>{Field:"OldJobtitle"}</t>
+  </si>
+  <si>
+    <t>{Field:"OldRole"}</t>
   </si>
 </sst>
 </file>
@@ -5710,7 +5717,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5745,7 +5752,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5954,10 +5961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G4"/>
+  <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5967,10 +5974,12 @@
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5978,19 +5987,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -5998,18 +6013,23 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
